--- a/reports/20231220-provisioned-single-DB/PerfTestAnalysis.xlsx
+++ b/reports/20231220-provisioned-single-DB/PerfTestAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roncewind/senzing.git/aws-cloudformation-performance-testing/reports/20231220-provisioned-single-DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E420CF70-02C0-7C48-A23E-1779536F6E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44242DB0-EE70-B34D-9C60-36CD79B1BF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="500" windowWidth="35400" windowHeight="19700" xr2:uid="{83921CF5-0249-C341-948E-004987EBA171}"/>
   </bookViews>
@@ -549,6 +549,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-6A24-3B45-A3EB-EFCB3F902000}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -594,6 +599,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-6A24-3B45-A3EB-EFCB3F902000}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -616,6 +626,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-6A24-3B45-A3EB-EFCB3F902000}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1379,6 +1394,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-C9F3-F845-8FA1-17F68A13D60F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1424,6 +1444,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-C9F3-F845-8FA1-17F68A13D60F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -1446,6 +1471,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-C9F3-F845-8FA1-17F68A13D60F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2093,6 +2123,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B47B-414F-9871-676D90298B07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2163,6 +2198,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-B47B-414F-9871-676D90298B07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -2208,6 +2248,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-B47B-414F-9871-676D90298B07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -2230,6 +2275,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-B47B-414F-9871-676D90298B07}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2870,6 +2920,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9D14-9844-9646-9212059B3DEC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2940,6 +2995,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9D14-9844-9646-9212059B3DEC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -2985,6 +3045,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-9D14-9844-9646-9212059B3DEC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -3007,6 +3072,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-9D14-9844-9646-9212059B3DEC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3640,6 +3710,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9E40-2A45-BCA6-D483BB8C3730}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3710,6 +3785,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9E40-2A45-BCA6-D483BB8C3730}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -3755,6 +3835,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-9E40-2A45-BCA6-D483BB8C3730}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -3777,6 +3862,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-9E40-2A45-BCA6-D483BB8C3730}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4381,6 +4471,31 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-BFA2-A54D-B41F-6ED46289B5C7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
@@ -4399,6 +4514,36 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BFA2-A54D-B41F-6ED46289B5C7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-BFA2-A54D-B41F-6ED46289B5C7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -4419,6 +4564,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BFA2-A54D-B41F-6ED46289B5C7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -4441,6 +4591,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-BFA2-A54D-B41F-6ED46289B5C7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -8648,8 +8803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BE6118-A1AB-0244-8A25-CA7A07813C69}">
   <dimension ref="B4:M251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/reports/20231220-provisioned-single-DB/PerfTestAnalysis.xlsx
+++ b/reports/20231220-provisioned-single-DB/PerfTestAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roncewind/senzing.git/aws-cloudformation-performance-testing/reports/20231220-provisioned-single-DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44242DB0-EE70-B34D-9C60-36CD79B1BF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C07889-C05F-B443-BBF8-3C7D40AA8938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="500" windowWidth="35400" windowHeight="19700" xr2:uid="{83921CF5-0249-C341-948E-004987EBA171}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
   <si>
     <t>3 node DB</t>
   </si>
@@ -145,9 +145,6 @@
   <si>
     <t>db.r6gd.16xlarge</t>
   </si>
-  <si>
-    <t>id/gd cost?</t>
-  </si>
 </sst>
 </file>
 
@@ -165,18 +162,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,7 +185,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3202,7 +3193,7 @@
                   <c:v>15.952549999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.843840000000004</c:v>
+                  <c:v>20.24672</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>17.492799999999999</c:v>
@@ -3211,19 +3202,19 @@
                   <c:v>19.889810000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.600739999999998</c:v>
+                  <c:v>21.155769999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>22.077120000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.077120000000001</c:v>
+                  <c:v>26.4923</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>28.953599999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.953599999999998</c:v>
+                  <c:v>34.744799999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>57.907200000000003</c:v>
@@ -4721,7 +4712,7 @@
                   <c:v>39.123725999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.438028799999998</c:v>
+                  <c:v>43.840908799999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>48.7471295</c:v>
@@ -4730,19 +4721,19 @@
                   <c:v>46.463994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.098037599999998</c:v>
+                  <c:v>44.653067599999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>54.137536600000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.466607999999994</c:v>
+                  <c:v>53.881788</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>63.323027999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53.058239999999998</c:v>
+                  <c:v>58.849439999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>94.048248000000001</c:v>
@@ -8803,8 +8794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BE6118-A1AB-0244-8A25-CA7A07813C69}">
   <dimension ref="B4:M251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="D263" sqref="D263"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9267,11 +9258,11 @@
         <v>4392</v>
       </c>
       <c r="H20" s="2">
-        <v>18.096</v>
+        <v>21.715</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>22.077120000000001</v>
+        <v>26.4923</v>
       </c>
       <c r="J20">
         <v>64</v>
@@ -9285,7 +9276,7 @@
       </c>
       <c r="M20">
         <f t="shared" si="3"/>
-        <v>49.466607999999994</v>
+        <v>53.881788</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
@@ -9310,11 +9301,11 @@
         <v>4320</v>
       </c>
       <c r="H21" s="2">
-        <v>24.128</v>
+        <v>28.954000000000001</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>28.953599999999998</v>
+        <v>34.744799999999998</v>
       </c>
       <c r="J21">
         <v>68</v>
@@ -9328,7 +9319,7 @@
       </c>
       <c r="M21">
         <f t="shared" si="3"/>
-        <v>53.058239999999998</v>
+        <v>58.849439999999994</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
@@ -9353,11 +9344,11 @@
         <v>7488.0000000000009</v>
       </c>
       <c r="H22" s="2">
-        <v>8.0980000000000008</v>
+        <v>9.734</v>
       </c>
       <c r="I22">
         <f t="shared" ref="I22" si="8">H22*E22</f>
-        <v>16.843840000000004</v>
+        <v>20.24672</v>
       </c>
       <c r="J22">
         <v>36</v>
@@ -9371,7 +9362,7 @@
       </c>
       <c r="M22">
         <f t="shared" ref="M22" si="10">L22+I22</f>
-        <v>40.438028799999998</v>
+        <v>43.840908799999994</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
@@ -9396,11 +9387,11 @@
         <v>5868</v>
       </c>
       <c r="H23" s="2">
-        <v>10.798</v>
+        <v>12.978999999999999</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>17.600739999999998</v>
+        <v>21.155769999999997</v>
       </c>
       <c r="J23">
         <v>46</v>
@@ -9414,12 +9405,7 @@
       </c>
       <c r="M23">
         <f t="shared" si="3"/>
-        <v>41.098037599999998</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="H24" t="s">
-        <v>36</v>
+        <v>44.653067599999993</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
@@ -10063,7 +10049,7 @@
       </c>
       <c r="C162" s="1">
         <f>I22</f>
-        <v>16.843840000000004</v>
+        <v>20.24672</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
@@ -10088,7 +10074,7 @@
       </c>
       <c r="C165" s="1">
         <f>I23</f>
-        <v>17.600739999999998</v>
+        <v>21.155769999999997</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
@@ -10105,7 +10091,7 @@
       </c>
       <c r="C167" s="1">
         <f>I20</f>
-        <v>22.077120000000001</v>
+        <v>26.4923</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
@@ -10122,7 +10108,7 @@
       </c>
       <c r="C169" s="1">
         <f>I21</f>
-        <v>28.953599999999998</v>
+        <v>34.744799999999998</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
@@ -10317,7 +10303,7 @@
       </c>
       <c r="C242" s="1">
         <f>M22</f>
-        <v>40.438028799999998</v>
+        <v>43.840908799999994</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
@@ -10343,7 +10329,7 @@
       </c>
       <c r="C245" s="1">
         <f>M23</f>
-        <v>41.098037599999998</v>
+        <v>44.653067599999993</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
@@ -10361,7 +10347,7 @@
       </c>
       <c r="C247" s="1">
         <f>M20</f>
-        <v>49.466607999999994</v>
+        <v>53.881788</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
@@ -10379,7 +10365,7 @@
       </c>
       <c r="C249" s="1">
         <f>M21</f>
-        <v>53.058239999999998</v>
+        <v>58.849439999999994</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">

--- a/reports/20231220-provisioned-single-DB/PerfTestAnalysis.xlsx
+++ b/reports/20231220-provisioned-single-DB/PerfTestAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roncewind/senzing.git/aws-cloudformation-performance-testing/reports/20231220-provisioned-single-DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C07889-C05F-B443-BBF8-3C7D40AA8938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEB1750-B244-7A48-9C29-4F108FA89D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="500" windowWidth="35400" windowHeight="19700" xr2:uid="{83921CF5-0249-C341-948E-004987EBA171}"/>
   </bookViews>
@@ -8794,7 +8794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BE6118-A1AB-0244-8A25-CA7A07813C69}">
   <dimension ref="B4:M251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
       <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
